--- a/Manifest.xlsx
+++ b/Manifest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrien/Box Sync/SamuelLabShared/LabMemberFiles/Adrien/github/ODsee2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrien/Box Sync/SamuelLabShared/LabMemberFiles/Adrien/github/ODsee/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F59B4B-69E5-A348-A503-BA3D503FC952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6F5218-1C47-8747-A3C3-4B10F2E1B4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="500" windowWidth="22260" windowHeight="27700" xr2:uid="{6D8B8017-7486-8542-8FC8-170DD32F6140}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="55">
   <si>
     <t>Manifest file for Competition Referee v. 0.1</t>
   </si>
@@ -196,13 +196,16 @@
   </si>
   <si>
     <t>Plate3.xlsx</t>
+  </si>
+  <si>
+    <t>Do not count empty columns</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -220,6 +223,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -245,10 +255,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,7 +577,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -736,6 +747,11 @@
         <v>38</v>
       </c>
     </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>31</v>
